--- a/Документация/WebTours Профиль нагрузки_v1.1.xlsx
+++ b/Документация/WebTours Профиль нагрузки_v1.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Администратор\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Администратор\Music\Desktop\NT\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11295" windowHeight="4560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="52" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="63">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -62,18 +62,9 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>Покупка билета</t>
-  </si>
-  <si>
     <t xml:space="preserve">Удаление бронирования </t>
   </si>
   <si>
-    <t>Покупка билета (без просмотра квитанции)</t>
-  </si>
-  <si>
-    <t>Ознакомление с путевым листом</t>
-  </si>
-  <si>
     <t xml:space="preserve">Заполнение полей для поиска билета </t>
   </si>
   <si>
@@ -83,9 +74,6 @@
     <t xml:space="preserve">Отмена бронирования </t>
   </si>
   <si>
-    <t>Поиск билета без оплаты</t>
-  </si>
-  <si>
     <t>Наименование операции</t>
   </si>
   <si>
@@ -188,9 +176,6 @@
     <t>Pacing</t>
   </si>
   <si>
-    <t>Количетсво запросов одним пользователем в минуту</t>
-  </si>
-  <si>
     <t>Длительность ступени в минутах</t>
   </si>
   <si>
@@ -234,6 +219,12 @@
   </si>
   <si>
     <t>Выбор рейса без оплаты</t>
+  </si>
+  <si>
+    <t>Оформление билета с просмотром квитанций</t>
+  </si>
+  <si>
+    <t>Количество запросов одним пользователем в минуту</t>
   </si>
 </sst>
 </file>
@@ -668,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -846,6 +837,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -894,7 +896,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -966,10 +968,12 @@
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1334,7 +1338,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица7" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -1694,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A20"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,76 +1712,77 @@
     <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="44" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>49</v>
-      </c>
-      <c r="R1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1809,17 +1814,17 @@
         <v>420.80705009276437</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="N2">
-        <v>5.6154999999999999</v>
+        <v>6.4535999999999998</v>
       </c>
       <c r="O2">
-        <v>35.003500000000003</v>
+        <v>37.033499999999997</v>
       </c>
       <c r="P2">
         <f>N2+O2</f>
-        <v>40.619</v>
+        <v>43.487099999999998</v>
       </c>
       <c r="Q2" s="22">
         <v>80</v>
@@ -1840,19 +1845,19 @@
       </c>
       <c r="V2" s="32">
         <f>R2/W$2</f>
-        <v>0.14285714285714285</v>
+        <v>0.1</v>
       </c>
       <c r="W2">
-        <f>SUM(R2:R6)</f>
-        <v>7</v>
+        <f>SUM(R2:R7)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1875,52 +1880,52 @@
         <v>45</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J3" s="19">
         <v>247.90909090909091</v>
       </c>
       <c r="M3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N3">
-        <v>3.1109</v>
+        <v>5.2595000000000001</v>
       </c>
       <c r="O3">
-        <v>20.0014</v>
+        <v>19.3674</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P6" si="2">N3+O3</f>
-        <v>23.112300000000001</v>
+        <v>24.626899999999999</v>
       </c>
       <c r="Q3" s="22">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R3" s="22">
         <v>1</v>
       </c>
       <c r="S3" s="23">
-        <f t="shared" ref="S3:S6" si="3">60/(Q3)</f>
-        <v>1.2</v>
+        <f t="shared" ref="S3:S7" si="3">60/(Q3)</f>
+        <v>1.2244897959183674</v>
       </c>
       <c r="T3" s="30">
         <v>20</v>
       </c>
       <c r="U3" s="31">
-        <f t="shared" ref="U3:U6" si="4">ROUND(R3*S3*T3,0)</f>
+        <f t="shared" ref="U3:U7" si="4">ROUND(R3*S3*T3,0)</f>
         <v>24</v>
       </c>
       <c r="V3" s="32">
-        <f t="shared" ref="V3:V6" si="5">R3/W$2</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" ref="V3:V7" si="5">R3/W$2</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1949,43 +1954,43 @@
         <v>420.80705009276437</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="N4">
-        <v>4.5355999999999996</v>
+        <v>6.173</v>
       </c>
       <c r="O4">
-        <v>30.001799999999999</v>
+        <v>30.361999999999998</v>
       </c>
       <c r="P4">
         <f t="shared" si="2"/>
-        <v>34.537399999999998</v>
+        <v>36.534999999999997</v>
       </c>
       <c r="Q4" s="22">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="R4" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S4" s="23">
         <f t="shared" si="3"/>
-        <v>0.76923076923076927</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="T4" s="30">
         <v>20</v>
       </c>
       <c r="U4" s="31">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="V4" s="32">
         <f t="shared" si="5"/>
-        <v>0.2857142857142857</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -2011,13 +2016,13 @@
         <v>45</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J5" s="19">
         <v>299.33766233766232</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>6.3802000000000003</v>
@@ -2030,30 +2035,30 @@
         <v>61.383600000000001</v>
       </c>
       <c r="Q5" s="22">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R5" s="22">
         <v>1</v>
       </c>
       <c r="S5" s="23">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="T5" s="30">
         <v>20</v>
       </c>
       <c r="U5" s="31">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="V5" s="32">
         <f t="shared" si="5"/>
-        <v>0.14285714285714285</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2085,7 +2090,7 @@
         <v>175.90909090909091</v>
       </c>
       <c r="M6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N6">
         <v>5.1223000000000001</v>
@@ -2116,12 +2121,12 @@
       </c>
       <c r="V6" s="32">
         <f t="shared" si="5"/>
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -2147,24 +2152,39 @@
         <v>45</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J7" s="19">
         <v>73.469387755102048</v>
       </c>
-      <c r="T7" s="30"/>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="36">
+        <v>70</v>
+      </c>
+      <c r="R7" s="36">
+        <v>1</v>
+      </c>
+      <c r="S7" s="23">
+        <f t="shared" si="3"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="T7" s="30">
+        <v>20</v>
+      </c>
       <c r="U7" s="31">
-        <f>SUM(U2:U6)</f>
-        <v>126</v>
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
       <c r="V7" s="32">
-        <f>SUM(V2:V6)</f>
-        <v>0.99999999999999989</v>
+        <f t="shared" si="5"/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -2195,10 +2215,18 @@
       <c r="J8" s="19">
         <v>166.46938775510205</v>
       </c>
+      <c r="U8" s="24">
+        <f>SUM(U2:U7)</f>
+        <v>140</v>
+      </c>
+      <c r="V8" s="37">
+        <f>SUM(V2:V7)</f>
+        <v>1.0000000000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -2224,7 +2252,7 @@
         <v>73.469387755102048</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J9" s="19">
         <v>1804.7087198515769</v>
@@ -2232,10 +2260,10 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2260,7 +2288,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -2288,7 +2316,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -2316,10 +2344,10 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2344,10 +2372,10 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2372,7 +2400,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -2400,7 +2428,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -2428,7 +2456,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -2456,10 +2484,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2484,10 +2512,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2512,7 +2540,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -2624,7 +2652,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -2632,7 +2660,7 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="35">
         <v>1</v>
       </c>
       <c r="E24">
@@ -2652,15 +2680,15 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="35">
         <v>1</v>
       </c>
       <c r="E25">
@@ -2680,7 +2708,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -2688,7 +2716,7 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="35">
         <v>1</v>
       </c>
       <c r="E26">
@@ -2708,13 +2736,13 @@
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" t="s">
         <v>56</v>
-      </c>
-      <c r="G28" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2746,7 +2774,7 @@
     </row>
     <row r="30" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2">
         <v>282</v>
@@ -2773,7 +2801,7 @@
     </row>
     <row r="31" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B31" s="2">
         <v>251</v>
@@ -2854,7 +2882,7 @@
     </row>
     <row r="34" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B34" s="2">
         <v>73</v>
@@ -2954,29 +2982,29 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
+      <c r="E9" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2984,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8">
         <v>368</v>
@@ -3003,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G13" s="8">
         <v>251</v>
@@ -3022,7 +3050,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G14" s="8">
         <v>251</v>
@@ -3041,7 +3069,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G15" s="8">
         <v>175</v>
@@ -3057,10 +3085,10 @@
     </row>
     <row r="16" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="E16" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G16" s="8">
         <v>159</v>
@@ -3079,7 +3107,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G17" s="8">
         <v>73</v>
@@ -3098,7 +3126,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G18" s="8">
         <v>326</v>
@@ -3113,29 +3141,29 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
+      <c r="E23" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="26" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3143,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G26" s="14">
         <f>5*368</f>
@@ -3163,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G27" s="14">
         <f>5*251</f>
@@ -3183,7 +3211,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G28" s="14">
         <f>5*251</f>
@@ -3203,7 +3231,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G29" s="14">
         <f>5*175</f>
@@ -3220,10 +3248,10 @@
     </row>
     <row r="30" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E30" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G30" s="14">
         <f>5*159</f>
@@ -3243,7 +3271,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G31" s="14">
         <f>5*73</f>
@@ -3263,7 +3291,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G32" s="14">
         <f>5*326</f>
@@ -3279,41 +3307,41 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
+      <c r="E35" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="L37" s="18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N37" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O37" s="18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3321,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G38" s="14">
         <f>5*368</f>
@@ -3335,7 +3363,7 @@
         <v>0.12754860123281175</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M38" s="18">
         <v>377</v>
@@ -3352,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G39" s="14">
         <f>5*251</f>
@@ -3366,7 +3394,7 @@
         <v>4.5627376425855459E-2</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M39" s="18">
         <v>998</v>
@@ -3383,7 +3411,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G40" s="14">
         <f>5*251</f>
@@ -3397,10 +3425,10 @@
         <v>4.5627376425855459E-2</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N40" s="18">
         <v>0</v>
@@ -3414,7 +3442,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G41" s="14">
         <f>5*175</f>
@@ -3428,10 +3456,10 @@
         <v>5.3030303030302983E-2</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N41" s="18">
         <v>139</v>
@@ -3442,10 +3470,10 @@
     </row>
     <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E42" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G42" s="14">
         <f>5*159</f>
@@ -3459,10 +3487,10 @@
         <v>0.20340681362725455</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N42" s="18">
         <v>1</v>
@@ -3476,7 +3504,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G43" s="14">
         <f>5*73</f>
@@ -3490,7 +3518,7 @@
         <v>9.6534653465346509E-2</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M43" s="18">
         <v>924</v>
@@ -3507,7 +3535,7 @@
         <v>6</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G44" s="14">
         <f>5*326</f>
@@ -3521,10 +3549,10 @@
         <v>2.68656716417911E-2</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N44" s="18">
         <v>0</v>

--- a/Документация/WebTours Профиль нагрузки_v1.1.xlsx
+++ b/Документация/WebTours Профиль нагрузки_v1.1.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1036,7 +1036,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Администратор" refreshedDate="44092.504083912034" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="25">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Администратор" refreshedDate="44094.612729629633" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="25">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H26" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -1235,7 +1235,7 @@
     <n v="130.90909090909091"/>
   </r>
   <r>
-    <s v="Выбор рейса без покупки"/>
+    <s v="Выбор рейса без оплаты"/>
     <x v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -1245,7 +1245,7 @@
     <n v="72"/>
   </r>
   <r>
-    <s v="Выбор рейса без покупки"/>
+    <s v="Выбор рейса без оплаты"/>
     <x v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -1255,7 +1255,7 @@
     <n v="72"/>
   </r>
   <r>
-    <s v="Выбор рейса без покупки"/>
+    <s v="Выбор рейса без оплаты"/>
     <x v="2"/>
     <n v="1"/>
     <n v="1"/>
@@ -1265,7 +1265,7 @@
     <n v="72"/>
   </r>
   <r>
-    <s v="Выбор рейса без покупки"/>
+    <s v="Выбор рейса без оплаты"/>
     <x v="5"/>
     <n v="1"/>
     <n v="1"/>
@@ -1338,7 +1338,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -1698,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,7 +1895,7 @@
         <v>19.3674</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P6" si="2">N3+O3</f>
+        <f t="shared" ref="P3:P7" si="2">N3+O3</f>
         <v>24.626899999999999</v>
       </c>
       <c r="Q3" s="22">
@@ -2025,14 +2025,14 @@
         <v>60</v>
       </c>
       <c r="N5">
-        <v>6.3802000000000003</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="O5">
-        <v>55.003399999999999</v>
+        <v>15.9598</v>
       </c>
       <c r="P5">
         <f t="shared" si="2"/>
-        <v>61.383600000000001</v>
+        <v>20.819800000000001</v>
       </c>
       <c r="Q5" s="22">
         <v>50</v>
@@ -2093,14 +2093,14 @@
         <v>4</v>
       </c>
       <c r="N6">
-        <v>5.1223000000000001</v>
+        <v>5.7567000000000004</v>
       </c>
       <c r="O6">
-        <v>35.0032</v>
+        <v>15.4191</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>40.125500000000002</v>
+        <v>21.175800000000002</v>
       </c>
       <c r="Q6" s="22">
         <v>150</v>
@@ -2160,6 +2160,16 @@
       <c r="M7" t="s">
         <v>1</v>
       </c>
+      <c r="N7">
+        <v>3.2170000000000001</v>
+      </c>
+      <c r="O7">
+        <v>13.958500000000001</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>17.1755</v>
+      </c>
       <c r="Q7" s="36">
         <v>70</v>
       </c>
@@ -2761,15 +2771,15 @@
         <v>-2.834909507748673E-3</v>
       </c>
       <c r="G29" s="33">
-        <f>C29/6</f>
-        <v>70.134508348794057</v>
+        <f>C29/3</f>
+        <v>140.26901669758811</v>
       </c>
       <c r="H29" s="33">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="I29" s="26">
         <f>1-G29/H29</f>
-        <v>-0.1132461642665723</v>
+        <v>7.7177521726394027E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2788,15 +2798,15 @@
         <v>5.7920083300793901E-2</v>
       </c>
       <c r="G30" s="33">
-        <f t="shared" ref="G30:G35" si="7">C30/6</f>
-        <v>49.88961038961039</v>
+        <f t="shared" ref="G30:G35" si="7">C30/3</f>
+        <v>99.779220779220779</v>
       </c>
       <c r="H30" s="33">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="I30" s="26">
         <f t="shared" ref="I30:I35" si="8">1-G30/H30</f>
-        <v>-0.18784786641929507</v>
+        <v>9.2916174734356538E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2816,14 +2826,14 @@
       </c>
       <c r="G31" s="33">
         <f t="shared" si="7"/>
-        <v>41.31818181818182</v>
+        <v>82.63636363636364</v>
       </c>
       <c r="H31" s="33">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="I31" s="26">
         <f t="shared" si="8"/>
-        <v>1.6233766233766156E-2</v>
+        <v>9.1908091908091905E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2843,14 +2853,14 @@
       </c>
       <c r="G32" s="33">
         <f t="shared" si="7"/>
-        <v>29.318181818181817</v>
+        <v>58.636363636363633</v>
       </c>
       <c r="H32" s="33">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I32" s="26">
         <f t="shared" si="8"/>
-        <v>-8.5858585858585856E-2</v>
+        <v>6.9264069264069361E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2870,14 +2880,14 @@
       </c>
       <c r="G33" s="33">
         <f t="shared" si="7"/>
-        <v>27.744897959183675</v>
+        <v>55.489795918367349</v>
       </c>
       <c r="H33" s="33">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="I33" s="26">
         <f t="shared" si="8"/>
-        <v>4.327938071780435E-2</v>
+        <v>7.5170068027210823E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2895,15 +2905,15 @@
         <v>0</v>
       </c>
       <c r="G34" s="33">
-        <f>C34/6</f>
-        <v>12.166666666666666</v>
+        <f t="shared" si="7"/>
+        <v>24.333333333333332</v>
       </c>
       <c r="H34" s="33">
-        <v>13</v>
-      </c>
-      <c r="I34" s="26" t="b">
-        <f>H29=1-G34/H34</f>
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="I34" s="26">
+        <f t="shared" si="8"/>
+        <v>9.8765432098765427E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2923,14 +2933,14 @@
       </c>
       <c r="G35" s="33">
         <f t="shared" si="7"/>
-        <v>70.134508348794057</v>
+        <v>140.26901669758811</v>
       </c>
       <c r="H35" s="33">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="I35" s="26">
         <f t="shared" si="8"/>
-        <v>-0.25240193479989381</v>
+        <v>7.1066114585509155E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Документация/WebTours Профиль нагрузки_v1.1.xlsx
+++ b/Документация/WebTours Профиль нагрузки_v1.1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="70">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -225,6 +225,27 @@
   </si>
   <si>
     <t>Количество запросов одним пользователем в минуту</t>
+  </si>
+  <si>
+    <t>choose_flight</t>
+  </si>
+  <si>
+    <t>click_itinerary</t>
+  </si>
+  <si>
+    <t>delete_ticket</t>
+  </si>
+  <si>
+    <t>fill_payment</t>
+  </si>
+  <si>
+    <t>Gotosite</t>
+  </si>
+  <si>
+    <t>fill_find_flights/click_flights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              100/99</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1057,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Администратор" refreshedDate="44094.612729629633" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="25">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Администратор" refreshedDate="44094.77139490741" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="25">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H26" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -1698,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,6 +1872,10 @@
         <f>SUM(R2:R7)</f>
         <v>10</v>
       </c>
+      <c r="X2">
+        <f>R2*S2*T2</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1919,6 +1944,10 @@
         <f t="shared" ref="V3:V7" si="5">R3/W$2</f>
         <v>0.1</v>
       </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X7" si="6">R3*S3*T3</f>
+        <v>24.489795918367349</v>
+      </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1987,6 +2016,10 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
+      <c r="X4">
+        <f t="shared" si="6"/>
+        <v>43.636363636363633</v>
+      </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2055,6 +2088,10 @@
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2123,6 +2160,10 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2191,6 +2232,10 @@
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>17.142857142857142</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2464,7 +2509,7 @@
         <v>130.90909090909091</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2492,7 +2537,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2520,7 +2565,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -2548,7 +2593,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -2576,7 +2621,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2604,7 +2649,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2632,7 +2677,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2660,7 +2705,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2688,7 +2733,7 @@
         <v>51.428571428571423</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2716,7 +2761,7 @@
         <v>51.428571428571423</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2744,7 +2789,7 @@
         <v>51.428571428571423</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>40</v>
       </c>
@@ -2754,8 +2799,14 @@
       <c r="G28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2775,14 +2826,20 @@
         <v>140.26901669758811</v>
       </c>
       <c r="H29" s="33">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I29" s="26">
         <f>1-G29/H29</f>
-        <v>7.7177521726394027E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-1.9215478399150498E-3</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -2794,22 +2851,28 @@
         <v>299.33766233766232</v>
       </c>
       <c r="D30" s="26">
-        <f t="shared" ref="D30:D36" si="6">1-B30/C30</f>
+        <f t="shared" ref="D30:D36" si="7">1-B30/C30</f>
         <v>5.7920083300793901E-2</v>
       </c>
       <c r="G30" s="33">
-        <f t="shared" ref="G30:G35" si="7">C30/3</f>
+        <f t="shared" ref="G30:G35" si="8">C30/3</f>
         <v>99.779220779220779</v>
       </c>
       <c r="H30" s="33">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I30" s="26">
-        <f t="shared" ref="I30:I35" si="8">1-G30/H30</f>
-        <v>9.2916174734356538E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I30:I35" si="9">1-G30/H30</f>
+        <v>2.2077922077922141E-3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2821,22 +2884,28 @@
         <v>247.90909090909091</v>
       </c>
       <c r="D31" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.2467913458012569E-2</v>
       </c>
       <c r="G31" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>82.63636363636364</v>
       </c>
       <c r="H31" s="33">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I31" s="26">
-        <f t="shared" si="8"/>
-        <v>9.1908091908091905E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>-7.7605321507761005E-3</v>
+      </c>
+      <c r="K31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -2848,22 +2917,28 @@
         <v>175.90909090909091</v>
       </c>
       <c r="D32" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.1679586563306845E-3</v>
       </c>
       <c r="G32" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>58.636363636363633</v>
       </c>
       <c r="H32" s="33">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I32" s="26">
-        <f t="shared" si="8"/>
-        <v>6.9264069264069361E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>-1.097178683385569E-2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L32">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2875,22 +2950,28 @@
         <v>166.46938775510205</v>
       </c>
       <c r="D33" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4869437293122538E-2</v>
       </c>
       <c r="G33" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>55.489795918367349</v>
       </c>
       <c r="H33" s="33">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I33" s="26">
-        <f t="shared" si="8"/>
-        <v>7.5170068027210823E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>9.1107871720116362E-3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -2901,22 +2982,28 @@
         <v>73</v>
       </c>
       <c r="D34" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24.333333333333332</v>
       </c>
       <c r="H34" s="33">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I34" s="26">
-        <f t="shared" si="8"/>
-        <v>9.8765432098765427E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>2.6666666666666727E-2</v>
+      </c>
+      <c r="K34" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2928,22 +3015,28 @@
         <v>420.80705009276437</v>
       </c>
       <c r="D35" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.834909507748673E-3</v>
       </c>
       <c r="G35" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>140.26901669758811</v>
       </c>
       <c r="H35" s="33">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I35" s="26">
-        <f t="shared" si="8"/>
-        <v>7.1066114585509155E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>-9.1296165294108E-3</v>
+      </c>
+      <c r="K35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2955,13 +3048,14 @@
         <v>1804.2393320964748</v>
       </c>
       <c r="D36" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.4425672375409304E-2</v>
       </c>
       <c r="E36" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Документация/WebTours Профиль нагрузки_v1.1.xlsx
+++ b/Документация/WebTours Профиль нагрузки_v1.1.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t xml:space="preserve">                                              100/99</t>
+  </si>
+  <si>
+    <t>t=[0,32: 20,32]</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1362,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -1719,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="D26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,6 +2792,11 @@
         <v>51.428571428571423</v>
       </c>
     </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>40</v>
@@ -2803,7 +2811,7 @@
         <v>67</v>
       </c>
       <c r="L28">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2925,17 +2933,17 @@
         <v>58.636363636363633</v>
       </c>
       <c r="H32" s="33">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I32" s="26">
         <f t="shared" si="9"/>
-        <v>-1.097178683385569E-2</v>
+        <v>6.1633281972265364E-3</v>
       </c>
       <c r="K32" t="s">
         <v>66</v>
       </c>
       <c r="L32">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3023,17 +3031,17 @@
         <v>140.26901669758811</v>
       </c>
       <c r="H35" s="33">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I35" s="26">
         <f t="shared" si="9"/>
-        <v>-9.1296165294108E-3</v>
+        <v>5.1842787405098623E-3</v>
       </c>
       <c r="K35" t="s">
         <v>23</v>
       </c>
       <c r="L35">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Документация/WebTours Профиль нагрузки_v1.1.xlsx
+++ b/Документация/WebTours Профиль нагрузки_v1.1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -245,10 +245,28 @@
     <t>fill_find_flights/click_flights</t>
   </si>
   <si>
-    <t xml:space="preserve">                                              100/99</t>
-  </si>
-  <si>
     <t>t=[0,32: 20,32]</t>
+  </si>
+  <si>
+    <t>отладочный тест</t>
+  </si>
+  <si>
+    <t>тест поиска максимума</t>
+  </si>
+  <si>
+    <t>400/399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    100/99</t>
+  </si>
+  <si>
+    <t>t=[1:09:34, 1:29:34]</t>
+  </si>
+  <si>
+    <t>тест подтверждения максимума</t>
+  </si>
+  <si>
+    <t>операц/час</t>
   </si>
 </sst>
 </file>
@@ -478,7 +496,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,6 +697,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,7 +950,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -995,6 +1025,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="38" borderId="0" xfId="44" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1720,23 +1753,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="K21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="24" max="24" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2512,7 +2546,7 @@
         <v>130.90909090909091</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2540,7 +2574,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2568,7 +2602,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -2596,7 +2630,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -2624,7 +2658,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2652,7 +2686,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2680,7 +2714,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2708,7 +2742,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2736,7 +2770,7 @@
         <v>51.428571428571423</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2764,7 +2798,7 @@
         <v>51.428571428571423</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2792,12 +2826,15 @@
         <v>51.428571428571423</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="R27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>40</v>
       </c>
@@ -2807,14 +2844,41 @@
       <c r="G28" t="s">
         <v>56</v>
       </c>
-      <c r="K28" t="s">
+      <c r="I28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="40">
         <v>141</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N28" t="s">
+        <v>56</v>
+      </c>
+      <c r="P28" t="s">
+        <v>71</v>
+      </c>
+      <c r="R28" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="S28" s="40">
+        <v>559</v>
+      </c>
+      <c r="U28" t="s">
+        <v>56</v>
+      </c>
+      <c r="W28" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y28" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z28" s="40">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2836,18 +2900,52 @@
       <c r="H29" s="33">
         <v>140</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="39">
         <f>1-G29/H29</f>
         <v>-1.9215478399150498E-3</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="40">
         <v>140</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="33">
+        <f>C29/3*4</f>
+        <v>561.07606679035246</v>
+      </c>
+      <c r="O29" s="33">
+        <v>561</v>
+      </c>
+      <c r="P29" s="39">
+        <f>1-N29/O29</f>
+        <v>-1.3559142665320323E-4</v>
+      </c>
+      <c r="R29" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" s="40">
+        <v>561</v>
+      </c>
+      <c r="U29" s="33">
+        <f>C29*4</f>
+        <v>1683.2282003710575</v>
+      </c>
+      <c r="V29" s="33">
+        <v>1684</v>
+      </c>
+      <c r="W29" s="39">
+        <f>1-U29/V29</f>
+        <v>4.5831331884949034E-4</v>
+      </c>
+      <c r="Y29" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z29" s="40">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -2859,28 +2957,62 @@
         <v>299.33766233766232</v>
       </c>
       <c r="D30" s="26">
-        <f t="shared" ref="D30:D36" si="7">1-B30/C30</f>
+        <f>1-B30/C30</f>
         <v>5.7920083300793901E-2</v>
       </c>
       <c r="G30" s="33">
-        <f t="shared" ref="G30:G35" si="8">C30/3</f>
+        <f t="shared" ref="G30:G35" si="7">C30/3</f>
         <v>99.779220779220779</v>
       </c>
       <c r="H30" s="33">
         <v>100</v>
       </c>
-      <c r="I30" s="26">
-        <f t="shared" ref="I30:I35" si="9">1-G30/H30</f>
+      <c r="I30" s="39">
+        <f t="shared" ref="I30:I35" si="8">1-G30/H30</f>
         <v>2.2077922077922141E-3</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="L30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="N30" s="33">
+        <f t="shared" ref="N30:N35" si="9">C30/3*4</f>
+        <v>399.11688311688312</v>
+      </c>
+      <c r="O30" s="33">
+        <v>400</v>
+      </c>
+      <c r="P30" s="39">
+        <f t="shared" ref="P30:P35" si="10">1-N30/O30</f>
+        <v>2.2077922077922141E-3</v>
+      </c>
+      <c r="R30" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="S30" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="U30" s="33">
+        <f t="shared" ref="U30:U35" si="11">C30*4</f>
+        <v>1197.3506493506493</v>
+      </c>
+      <c r="V30" s="33">
+        <v>1197</v>
+      </c>
+      <c r="W30" s="39">
+        <f t="shared" ref="W30:W35" si="12">1-U30/V30</f>
+        <v>-2.9294014256420198E-4</v>
+      </c>
+      <c r="Y30" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z30" s="40">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2892,28 +3024,62 @@
         <v>247.90909090909091</v>
       </c>
       <c r="D31" s="26">
+        <f t="shared" ref="D31:D36" si="13">1-B31/C31</f>
+        <v>-1.2467913458012569E-2</v>
+      </c>
+      <c r="G31" s="33">
         <f t="shared" si="7"/>
-        <v>-1.2467913458012569E-2</v>
-      </c>
-      <c r="G31" s="33">
-        <f t="shared" si="8"/>
         <v>82.63636363636364</v>
       </c>
       <c r="H31" s="33">
         <v>82</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="39">
+        <f t="shared" si="8"/>
+        <v>-7.7605321507761005E-3</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="40">
+        <v>82</v>
+      </c>
+      <c r="N31" s="33">
         <f t="shared" si="9"/>
-        <v>-7.7605321507761005E-3</v>
-      </c>
-      <c r="K31" t="s">
+        <v>330.54545454545456</v>
+      </c>
+      <c r="O31" s="33">
+        <v>331</v>
+      </c>
+      <c r="P31" s="39">
+        <f t="shared" si="10"/>
+        <v>1.3732491073880082E-3</v>
+      </c>
+      <c r="R31" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="L31">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S31" s="40">
+        <v>331</v>
+      </c>
+      <c r="U31" s="33">
+        <f t="shared" si="11"/>
+        <v>991.63636363636363</v>
+      </c>
+      <c r="V31" s="33">
+        <v>991</v>
+      </c>
+      <c r="W31" s="39">
+        <f t="shared" si="12"/>
+        <v>-6.4214292266773221E-4</v>
+      </c>
+      <c r="Y31" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z31" s="40">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -2925,28 +3091,62 @@
         <v>175.90909090909091</v>
       </c>
       <c r="D32" s="26">
+        <f t="shared" si="13"/>
+        <v>5.1679586563306845E-3</v>
+      </c>
+      <c r="G32" s="33">
         <f t="shared" si="7"/>
-        <v>5.1679586563306845E-3</v>
-      </c>
-      <c r="G32" s="33">
-        <f t="shared" si="8"/>
         <v>58.636363636363633</v>
       </c>
       <c r="H32" s="33">
         <v>59</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="39">
+        <f t="shared" si="8"/>
+        <v>6.1633281972265364E-3</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="L32" s="40">
+        <v>59</v>
+      </c>
+      <c r="N32" s="33">
         <f t="shared" si="9"/>
-        <v>6.1633281972265364E-3</v>
-      </c>
-      <c r="K32" t="s">
+        <v>234.54545454545453</v>
+      </c>
+      <c r="O32" s="33">
+        <v>235</v>
+      </c>
+      <c r="P32" s="39">
+        <f t="shared" si="10"/>
+        <v>1.9342359767892114E-3</v>
+      </c>
+      <c r="R32" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="L32">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S32" s="40">
+        <v>235</v>
+      </c>
+      <c r="U32" s="33">
+        <f t="shared" si="11"/>
+        <v>703.63636363636363</v>
+      </c>
+      <c r="V32" s="33">
+        <v>704</v>
+      </c>
+      <c r="W32" s="39">
+        <f t="shared" si="12"/>
+        <v>5.1652892561981911E-4</v>
+      </c>
+      <c r="Y32" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z32" s="40">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2958,28 +3158,62 @@
         <v>166.46938775510205</v>
       </c>
       <c r="D33" s="26">
+        <f t="shared" si="13"/>
+        <v>4.4869437293122538E-2</v>
+      </c>
+      <c r="G33" s="33">
         <f t="shared" si="7"/>
-        <v>4.4869437293122538E-2</v>
-      </c>
-      <c r="G33" s="33">
-        <f t="shared" si="8"/>
         <v>55.489795918367349</v>
       </c>
       <c r="H33" s="33">
         <v>56</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="39">
+        <f t="shared" si="8"/>
+        <v>9.1107871720116362E-3</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="40">
+        <v>56</v>
+      </c>
+      <c r="N33" s="33">
         <f t="shared" si="9"/>
-        <v>9.1107871720116362E-3</v>
-      </c>
-      <c r="K33" t="s">
+        <v>221.9591836734694</v>
+      </c>
+      <c r="O33" s="33">
+        <v>223</v>
+      </c>
+      <c r="P33" s="39">
+        <f t="shared" si="10"/>
+        <v>4.667337787132797E-3</v>
+      </c>
+      <c r="R33" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="L33">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S33" s="40">
+        <v>223</v>
+      </c>
+      <c r="U33" s="33">
+        <f t="shared" si="11"/>
+        <v>665.87755102040819</v>
+      </c>
+      <c r="V33" s="33">
+        <v>668</v>
+      </c>
+      <c r="W33" s="39">
+        <f t="shared" si="12"/>
+        <v>3.1773188317242296E-3</v>
+      </c>
+      <c r="Y33" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z33" s="40">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -2990,28 +3224,62 @@
         <v>73</v>
       </c>
       <c r="D34" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="33">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="33">
-        <f t="shared" si="8"/>
         <v>24.333333333333332</v>
       </c>
       <c r="H34" s="33">
         <v>25</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="39">
+        <f t="shared" si="8"/>
+        <v>2.6666666666666727E-2</v>
+      </c>
+      <c r="K34" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="40">
+        <v>25</v>
+      </c>
+      <c r="N34" s="33">
         <f t="shared" si="9"/>
+        <v>97.333333333333329</v>
+      </c>
+      <c r="O34" s="33">
+        <v>100</v>
+      </c>
+      <c r="P34" s="39">
+        <f t="shared" si="10"/>
         <v>2.6666666666666727E-2</v>
       </c>
-      <c r="K34" t="s">
+      <c r="R34" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="L34">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S34" s="40">
+        <v>100</v>
+      </c>
+      <c r="U34" s="33">
+        <f t="shared" si="11"/>
+        <v>292</v>
+      </c>
+      <c r="V34" s="33">
+        <v>295</v>
+      </c>
+      <c r="W34" s="39">
+        <f t="shared" si="12"/>
+        <v>1.016949152542368E-2</v>
+      </c>
+      <c r="Y34" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z34" s="40">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -3023,28 +3291,62 @@
         <v>420.80705009276437</v>
       </c>
       <c r="D35" s="26">
+        <f t="shared" si="13"/>
+        <v>-2.834909507748673E-3</v>
+      </c>
+      <c r="G35" s="33">
         <f t="shared" si="7"/>
-        <v>-2.834909507748673E-3</v>
-      </c>
-      <c r="G35" s="33">
-        <f t="shared" si="8"/>
         <v>140.26901669758811</v>
       </c>
       <c r="H35" s="33">
         <v>141</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="39">
+        <f t="shared" si="8"/>
+        <v>5.1842787405098623E-3</v>
+      </c>
+      <c r="K35" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="40">
+        <v>141</v>
+      </c>
+      <c r="N35" s="33">
         <f t="shared" si="9"/>
-        <v>5.1842787405098623E-3</v>
-      </c>
-      <c r="K35" t="s">
+        <v>561.07606679035246</v>
+      </c>
+      <c r="O35" s="33">
+        <v>562</v>
+      </c>
+      <c r="P35" s="39">
+        <f t="shared" si="10"/>
+        <v>1.6440092698354336E-3</v>
+      </c>
+      <c r="R35" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="L35">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S35" s="40">
+        <v>562</v>
+      </c>
+      <c r="U35" s="33">
+        <f t="shared" si="11"/>
+        <v>1683.2282003710575</v>
+      </c>
+      <c r="V35" s="33">
+        <v>1683</v>
+      </c>
+      <c r="W35" s="39">
+        <f t="shared" si="12"/>
+        <v>-1.3559142665320323E-4</v>
+      </c>
+      <c r="Y35" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z35" s="40">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3056,10 +3358,17 @@
         <v>1804.2393320964748</v>
       </c>
       <c r="D36" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.4425672375409304E-2</v>
       </c>
       <c r="E36" s="4"/>
+      <c r="O36">
+        <f>SUM(O29:O35)*3</f>
+        <v>7236</v>
+      </c>
+      <c r="P36" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3094,13 +3403,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="5" t="s">
@@ -3253,13 +3562,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="12" t="s">
@@ -3419,13 +3728,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="12" t="s">

--- a/Документация/WebTours Профиль нагрузки_v1.1.xlsx
+++ b/Документация/WebTours Профиль нагрузки_v1.1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -254,9 +254,6 @@
     <t>тест поиска максимума</t>
   </si>
   <si>
-    <t>400/399</t>
-  </si>
-  <si>
     <t xml:space="preserve">    100/99</t>
   </si>
   <si>
@@ -266,7 +263,7 @@
     <t>тест подтверждения максимума</t>
   </si>
   <si>
-    <t>операц/час</t>
+    <t>запросов/час</t>
   </si>
 </sst>
 </file>
@@ -1755,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="K24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,7 +2828,7 @@
         <v>69</v>
       </c>
       <c r="R27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
@@ -2869,7 +2866,7 @@
         <v>56</v>
       </c>
       <c r="W28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y28" s="38" t="s">
         <v>67</v>
@@ -2975,24 +2972,24 @@
         <v>68</v>
       </c>
       <c r="L30" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N30" s="33">
         <f t="shared" ref="N30:N35" si="9">C30/3*4</f>
         <v>399.11688311688312</v>
       </c>
       <c r="O30" s="33">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P30" s="39">
         <f t="shared" ref="P30:P35" si="10">1-N30/O30</f>
-        <v>2.2077922077922141E-3</v>
+        <v>-2.9294014256420198E-4</v>
       </c>
       <c r="R30" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="S30" s="40" t="s">
-        <v>72</v>
+      <c r="S30" s="40">
+        <v>399</v>
       </c>
       <c r="U30" s="33">
         <f t="shared" ref="U30:U35" si="11">C30*4</f>
@@ -3116,17 +3113,17 @@
         <v>234.54545454545453</v>
       </c>
       <c r="O32" s="33">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P32" s="39">
         <f t="shared" si="10"/>
-        <v>1.9342359767892114E-3</v>
+        <v>6.1633281972265364E-3</v>
       </c>
       <c r="R32" s="38" t="s">
         <v>66</v>
       </c>
       <c r="S32" s="40">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="U32" s="33">
         <f t="shared" si="11"/>
@@ -3367,7 +3364,14 @@
         <v>7236</v>
       </c>
       <c r="P36" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="V36">
+        <f>SUM(V29:V35)</f>
+        <v>7222</v>
+      </c>
+      <c r="W36" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
